--- a/Collections/Евро/Greece/#EURO#Greece#Commemorative[2004-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Greece/#EURO#Greece#Commemorative[2004-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>Year</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>100th Anniversary - Birth of Manolis Andronikos</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -473,6 +482,12 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,11 +500,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -498,6 +510,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -530,15 +551,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -553,16 +565,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="6"/>
-    <tableColumn id="2" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -833,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -854,16 +866,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
@@ -873,8 +885,8 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -900,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="9">
@@ -970,7 +982,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="9">
@@ -1016,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="9">
@@ -1039,7 +1051,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="9">
@@ -1061,7 +1073,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="9">
@@ -1083,7 +1095,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="9">
@@ -1105,7 +1117,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="23" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="9">
@@ -1127,7 +1139,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="9">
@@ -1149,14 +1161,14 @@
         <v>19</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
       </c>
       <c r="G14" s="10" t="str">
-        <f t="shared" ref="G8:G25" si="1">IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G14:G25" si="1">IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1171,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="9">
@@ -1193,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="9">
@@ -1215,7 +1227,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="9">
@@ -1237,7 +1249,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="9">
@@ -1252,14 +1264,14 @@
       <c r="A19" s="6">
         <v>2016</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="9">
@@ -1281,7 +1293,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="9">
@@ -1303,7 +1315,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="9">
@@ -1325,7 +1337,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="9">
@@ -1347,7 +1359,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="9">
@@ -1369,7 +1381,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="9">
@@ -1391,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="23" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="9">
@@ -1409,11 +1421,11 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F6 F8:F25">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F6 F8:F25">
+  <conditionalFormatting sqref="F6 F3 F8:F25">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1426,7 +1438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1443,7 +1455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1460,7 +1472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1484,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1552,16 +1564,40 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Greece/#EURO#Greece#Commemorative[2004-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Greece/#EURO#Greece#Commemorative[2004-present]#circulation_quality.xlsx
@@ -488,6 +488,9 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,9 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -866,16 +866,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
@@ -885,8 +885,8 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1425,7 +1425,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F3 F8:F25">
+  <conditionalFormatting sqref="F3 F6 F8:F25">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1571,7 +1571,7 @@
       <c r="B6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="B7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1592,8 +1592,8 @@
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
